--- a/3.2mm material/Purchased partsBOM.xlsx
+++ b/3.2mm material/Purchased partsBOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>PART</t>
   </si>
@@ -99,40 +99,142 @@
     <t>https://www.amazon.com/GS-Power-Speaker-Amplifier-Automotive/dp/B0796JP1Q9</t>
   </si>
   <si>
-    <t>powe cord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 feet are needed fr this project. </t>
-  </si>
-  <si>
-    <t>shrink wrap</t>
-  </si>
-  <si>
-    <t>M4  x 16 Button head screw</t>
-  </si>
-  <si>
     <t>pivot screw</t>
   </si>
   <si>
-    <t>Use M4 x 12 for 3.2 material thickness</t>
-  </si>
-  <si>
-    <t>know screw</t>
-  </si>
-  <si>
     <t>Pivot washer</t>
   </si>
   <si>
     <t>M4 washer</t>
   </si>
   <si>
-    <t>M4 x 20 cap head screw</t>
-  </si>
-  <si>
-    <t>Use M4 x 16 for 3.2 material thickness</t>
-  </si>
-  <si>
     <t>filter</t>
+  </si>
+  <si>
+    <t>M4  x 10 Button head screw</t>
+  </si>
+  <si>
+    <t>knob screw</t>
+  </si>
+  <si>
+    <t>shrink tube</t>
+  </si>
+  <si>
+    <t>18ga 2 conduftor zip-cord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380mm are needed for this project. </t>
+  </si>
+  <si>
+    <t>nuts</t>
+  </si>
+  <si>
+    <t>M4 nut</t>
+  </si>
+  <si>
+    <t>2 used for the picots and one for the tilt mechanism</t>
+  </si>
+  <si>
+    <t>M4 x 12 cap head screw</t>
+  </si>
+  <si>
+    <t>LED socket screw</t>
+  </si>
+  <si>
+    <t>M3 x 12 button head screw</t>
+  </si>
+  <si>
+    <t>LED socket screw nut</t>
+  </si>
+  <si>
+    <t>M3 hex nut</t>
+  </si>
+  <si>
+    <t>Reflector material</t>
+  </si>
+  <si>
+    <t>Mylar reflector bird tape</t>
+  </si>
+  <si>
+    <t>Reflector stickum</t>
+  </si>
+  <si>
+    <t>two sided tape</t>
+  </si>
+  <si>
+    <t>Stick reflector tape to one side</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/dp/B07WG24L8Z</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/dp/B085CJGQ8R</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/dp/B085CKN5SC</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B079H1X6K3</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/Emraw-Permanent-Attaching-Mounting-Artwork/dp/B07LFHYNKG</t>
+  </si>
+  <si>
+    <t>https://www.boltdepot.com/Product-Details.aspx?product=6623</t>
+  </si>
+  <si>
+    <t>https://www.boltdepot.com/Product-Details.aspx?product=7221</t>
+  </si>
+  <si>
+    <t>https://www.boltdepot.com/Product-Details.aspx?product=4514</t>
+  </si>
+  <si>
+    <t>https://www.boltdepot.com/Product-Details.aspx?product=6393</t>
+  </si>
+  <si>
+    <t>https://www.boltdepot.com/Product-Details.aspx?product=4773</t>
+  </si>
+  <si>
+    <t>https://www.boltdepot.com/Product-Details.aspx?product=4774</t>
+  </si>
+  <si>
+    <t>3/8" thick carbon filter</t>
+  </si>
+  <si>
+    <t>Extra parts</t>
+  </si>
+  <si>
+    <t>3/16" shrink tube, 25mm</t>
+  </si>
+  <si>
+    <t>For each wire of the LED light</t>
+  </si>
+  <si>
+    <t>1/4" shrink tube, 25mm</t>
+  </si>
+  <si>
+    <t>1/4" shrink tube, 50mm</t>
+  </si>
+  <si>
+    <t>Piece is second layer over LED wire connections</t>
+  </si>
+  <si>
+    <t>Pieces cover wire and lead at four switch positions</t>
   </si>
 </sst>
 </file>
@@ -164,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,12 +289,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +325,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,287 +628,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>17.989999999999998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <f>F5*B5/G5</f>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I21" si="0">G5*B5/H5</f>
         <v>17.989999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>H5-B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>9.99</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>10</v>
       </c>
-      <c r="H6" s="2">
-        <f>F6*B6/G6</f>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
         <v>0.999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" ref="J6:J21" si="1">H6-B6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>9.99</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
-        <f>F7*B7/G7</f>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
         <v>0.999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>11.39</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>6</v>
       </c>
-      <c r="H8" s="2">
-        <f>F8*B8/G8</f>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
         <v>1.8983333333333334</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>1.5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>17.95</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>200</v>
       </c>
-      <c r="H9" s="2">
-        <f>F9*B9/G9</f>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
         <v>0.13462499999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="H10" s="5">
+        <v>240</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10825</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="H11" s="5">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23316666666666666</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="H12" s="5">
+        <f>20*6</f>
+        <v>120</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12" si="2">G12*B12/H12</f>
+        <v>0.11658333333333333</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="3">H12-B12</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H13" s="5">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="H14" s="5">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <f>SUM(H5:H15)</f>
-        <v>22.020958333333329</v>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H15" s="5">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5.66</v>
+      </c>
+      <c r="H16" s="5">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6600000000000004E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H17" s="5">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="H18" s="5">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2">
+        <v>11.99</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="5">
+        <v>160</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="H20" s="5">
+        <f>500*12*25.4</f>
+        <v>152400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2414698162729654E-3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>152240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5">
+        <v>160</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H21" s="5">
+        <f>36*3*12*2*25.4</f>
+        <v>65836.800000000003</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9417711674929523E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>65676.800000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>SUM(I5:I21)</f>
+        <v>25.280117514824532</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F20" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.2mm material/Purchased partsBOM.xlsx
+++ b/3.2mm material/Purchased partsBOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>PART</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>3/8" thick carbon filter</t>
-  </si>
-  <si>
-    <t>Extra parts</t>
   </si>
   <si>
     <t>3/16" shrink tube, 25mm</t>
@@ -631,7 +628,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D21"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +675,7 @@
       <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -711,10 +706,6 @@
         <f t="shared" ref="I5:I21" si="0">G5*B5/H5</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="J5">
-        <f>H5-B5</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -745,10 +736,6 @@
         <f t="shared" si="0"/>
         <v>0.999</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J21" si="1">H6-B6</f>
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -779,10 +766,6 @@
         <f t="shared" si="0"/>
         <v>0.999</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -813,10 +796,6 @@
         <f t="shared" si="0"/>
         <v>1.8983333333333334</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -847,10 +826,6 @@
         <f t="shared" si="0"/>
         <v>0.13462499999999999</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>198.5</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -863,10 +838,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>56</v>
@@ -880,10 +855,6 @@
       <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0.10825</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,10 +868,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>55</v>
@@ -916,10 +887,6 @@
         <f t="shared" si="0"/>
         <v>0.23316666666666666</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>236</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -932,10 +899,10 @@
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>55</v>
@@ -948,12 +915,8 @@
         <v>120</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12" si="2">G12*B12/H12</f>
+        <f t="shared" ref="I12" si="1">G12*B12/H12</f>
         <v>0.11658333333333333</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12" si="3">H12-B12</f>
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -983,10 +946,6 @@
         <f t="shared" si="0"/>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1015,10 +974,6 @@
         <f t="shared" si="0"/>
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1049,10 +1004,6 @@
         <f t="shared" si="0"/>
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1081,12 +1032,8 @@
         <f t="shared" si="0"/>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1113,12 +1060,8 @@
         <f t="shared" si="0"/>
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1145,12 +1088,8 @@
         <f t="shared" si="0"/>
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1177,12 +1116,8 @@
         <f t="shared" si="0"/>
         <v>2.3980000000000001</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1210,12 +1145,8 @@
         <f t="shared" si="0"/>
         <v>8.2414698162729654E-3</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>152240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1245,12 +1176,8 @@
         <f t="shared" si="0"/>
         <v>1.9417711674929523E-2</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>65676.800000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I24">
         <f>SUM(I5:I21)</f>
         <v>25.280117514824532</v>
